--- a/datamares/OLR/OLR_datamares_ecosystems.xlsx
+++ b/datamares/OLR/OLR_datamares_ecosystems.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\datamares\Working_Metadata\Batch_2_ecosystems_2016-10-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\domm-metadata\datamares\OLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="21600" windowHeight="10545" tabRatio="408"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="691">
   <si>
     <t>text</t>
   </si>
@@ -3437,12 +3437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,10 +3469,9 @@
     <col min="23" max="23" width="34.85546875" style="25" customWidth="1"/>
     <col min="24" max="25" width="42.85546875" style="3" customWidth="1"/>
     <col min="26" max="26" width="59.28515625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="28.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3551,11 +3550,8 @@
       <c r="Z1" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="AA1" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3630,9 +3626,8 @@
       <c r="Z2" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="AA2" s="19"/>
-    </row>
-    <row r="3" spans="1:27" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>622</v>
       </c>
@@ -3711,9 +3706,8 @@
       <c r="Z3" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="AA3" s="19"/>
-    </row>
-    <row r="4" spans="1:27" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>624</v>
       </c>
@@ -3788,9 +3782,8 @@
       <c r="Z4" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>627</v>
       </c>
@@ -3867,9 +3860,8 @@
       <c r="Z5" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="AA5" s="17"/>
-    </row>
-    <row r="6" spans="1:27" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>679</v>
       </c>
@@ -3944,39 +3936,38 @@
       <c r="Z6" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="AA6" s="17"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M7" s="17"/>
       <c r="V7" s="22"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K8" s="17"/>
       <c r="M8" s="17"/>
       <c r="V8" s="22"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="V9" s="22"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="L10" s="17"/>
       <c r="V10" s="22"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O11" s="20"/>
       <c r="V11" s="22"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K12" s="17"/>
       <c r="V12" s="22"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K13" s="17"/>
       <c r="V13" s="22"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J14" s="17"/>
       <c r="V14" s="22"/>
     </row>
@@ -4125,7 +4116,7 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>Z1:AA1</xm:sqref>
+          <xm:sqref>Z1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>

--- a/datamares/OLR/OLR_datamares_ecosystems.xlsx
+++ b/datamares/OLR/OLR_datamares_ecosystems.xlsx
@@ -1919,9 +1919,6 @@
     <t>Vanderplank, Sula</t>
   </si>
   <si>
-    <t>Cabo Pulmo National Park</t>
-  </si>
-  <si>
     <t>2014 to 2015</t>
   </si>
   <si>
@@ -1940,9 +1937,6 @@
     <t>2016-12-31</t>
   </si>
   <si>
-    <t>Gulf of California</t>
-  </si>
-  <si>
     <t>Satellite and bibliographic</t>
   </si>
   <si>
@@ -1958,9 +1952,6 @@
     <t>Mapping Ocean's Wealth - Habitats extent</t>
   </si>
   <si>
-    <t>Mangroves | Sargassum | Corals | Rocky reef | Seamounts | Habitats</t>
-  </si>
-  <si>
     <t>2016-07-25</t>
   </si>
   <si>
@@ -1968,9 +1959,6 @@
   </si>
   <si>
     <t>Marine habitat distributions in the Gulf of California @ http://dx.doi.org/10.13022/M3S59N</t>
-  </si>
-  <si>
-    <t>Climate change | Pollution | Marine protected areas | Global</t>
   </si>
   <si>
     <t>2016-06-19</t>
@@ -2044,22 +2032,10 @@
     <t>Plankton tows, DNA analysis, genetic barcoding</t>
   </si>
   <si>
-    <t>Habitat complexity | Fish | Genetics</t>
-  </si>
-  <si>
-    <t>Cabo Pulmo National Park | Baja California Sur | Mexico | Gulf of California</t>
-  </si>
-  <si>
     <t>Exploring diversity in Cabo Pulmo National Park through fish eggs and larvae @ http://dx.doi.org/10.13022/M3KK5D</t>
   </si>
   <si>
     <t>ec_cp_fish_larvae.xlsx</t>
-  </si>
-  <si>
-    <t>El Niño Southern Oscillation | Temperature | Chlorophyll a | Ecosystem | Oceans</t>
-  </si>
-  <si>
-    <t>Endemic | Norma Oficial Mexicana (NOM) | Protected | Habitats</t>
   </si>
   <si>
     <r>
@@ -2118,6 +2094,30 @@
   </si>
   <si>
     <t>Ahern, Ana Luisa; Burton, Ron; Gomez, Jaime; Aburto-Oropeza, Octavio (20##): Exploring diversity in Cabo Pulmo National Park through fish eggs and larvae. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>California, Gulf of (Mexico)</t>
+  </si>
+  <si>
+    <t>Cabo Pulmo National Park (Mexico)</t>
+  </si>
+  <si>
+    <t>Cabo Pulmo National Park (Mexico) | Baja California Sur (Mexico) | Mexico | California, Gulf of (Mexico)</t>
+  </si>
+  <si>
+    <t>Endemic animals | Norma Oficial Mexicana (NOM) | Protected wildlands | Habitats</t>
+  </si>
+  <si>
+    <t>Fish | Genetics</t>
+  </si>
+  <si>
+    <t>El Niño Southern Oscillation | Ocean temperature | Chlorophyll a | Ecosystem | Ocean</t>
+  </si>
+  <si>
+    <t>Mangrove | Sargassum | Coral | Rocky reef | Seamount | Endemic animals</t>
+  </si>
+  <si>
+    <t>Climate change | Marine pollution | Marine protected area | Global</t>
   </si>
 </sst>
 </file>
@@ -3439,10 +3439,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3479,7 +3479,7 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -3559,10 +3559,10 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>403</v>
@@ -3593,38 +3593,38 @@
         <v>625</v>
       </c>
       <c r="O2" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="Q2" s="17" t="s">
-        <v>634</v>
-      </c>
       <c r="R2" s="22" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="S2" s="29"/>
       <c r="T2" s="22" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="W2" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3635,10 +3635,10 @@
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>403</v>
@@ -3653,10 +3653,10 @@
         <v>433</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>626</v>
@@ -3668,43 +3668,43 @@
         <v>623</v>
       </c>
       <c r="N3" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="V3" s="22" t="s">
         <v>666</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="W3" s="22" t="s">
         <v>667</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="T3" s="22" t="s">
+      <c r="X3" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z3" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3715,10 +3715,10 @@
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>403</v>
@@ -3733,7 +3733,7 @@
         <v>433</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>626</v>
@@ -3752,35 +3752,35 @@
         <v>625</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="S4" s="29"/>
       <c r="T4" s="22" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="U4" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="V4" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="V4" s="22" t="s">
-        <v>659</v>
-      </c>
       <c r="W4" s="22" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="Z4" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,10 +3791,10 @@
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>403</v>
@@ -3809,10 +3809,10 @@
         <v>433</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>626</v>
@@ -3827,52 +3827,52 @@
         <v>625</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="U5" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="X5" s="17" t="s">
+      <c r="Z5" s="17" t="s">
         <v>644</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="Z5" s="17" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>403</v>
@@ -3887,10 +3887,10 @@
         <v>433</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>626</v>
@@ -3905,36 +3905,36 @@
         <v>625</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="S6" s="29"/>
       <c r="T6" s="22" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="W6" s="24" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -4091,7 +4091,7 @@
       <formula>NOT(ISERROR(SEARCH("    \Sub-component",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1495" yWindow="249" count="2">
+  <dataValidations disablePrompts="1" xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
   </dataValidations>
@@ -4099,7 +4099,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1495" yWindow="249" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" xWindow="1495" yWindow="249" count="12">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>

--- a/datamares/OLR/OLR_datamares_ecosystems.xlsx
+++ b/datamares/OLR/OLR_datamares_ecosystems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="688">
   <si>
     <t>text</t>
   </si>
@@ -1995,15 +1995,6 @@
   </si>
   <si>
     <t>Software used: Microsoft Excel, Tableau. Coordinate system: WGS1984.</t>
-  </si>
-  <si>
-    <t>EMBARGO DATE</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
   </si>
   <si>
     <t>Exploring diversity in Cabo Pulmo National Park through fish eggs and larvae</t>
@@ -3437,41 +3428,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.140625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="39.140625" style="29" customWidth="1"/>
-    <col min="20" max="20" width="39.140625" style="25" customWidth="1"/>
-    <col min="21" max="21" width="33" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.140625" style="25" customWidth="1"/>
-    <col min="23" max="23" width="34.85546875" style="25" customWidth="1"/>
-    <col min="24" max="25" width="42.85546875" style="3" customWidth="1"/>
-    <col min="26" max="26" width="59.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.140625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="39.140625" style="29" customWidth="1"/>
+    <col min="19" max="19" width="39.140625" style="25" customWidth="1"/>
+    <col min="20" max="20" width="33" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.140625" style="25" customWidth="1"/>
+    <col min="22" max="22" width="34.85546875" style="25" customWidth="1"/>
+    <col min="23" max="24" width="42.85546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="59.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3479,79 +3469,76 @@
         <v>486</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>657</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="16" t="s">
+        <v>284</v>
+      </c>
       <c r="J1" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>105</v>
       </c>
+      <c r="L1" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="M1" s="16" t="s">
-        <v>105</v>
+        <v>450</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>352</v>
       </c>
+      <c r="S1" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="T1" s="23" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="U1" s="23" t="s">
-        <v>354</v>
+        <v>507</v>
       </c>
       <c r="V1" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="W1" s="23" t="s">
         <v>506</v>
       </c>
+      <c r="W1" s="16" t="s">
+        <v>460</v>
+      </c>
       <c r="X1" s="16" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="Z1" s="16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>621</v>
       </c>
@@ -3559,75 +3546,72 @@
         <v>485</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>634</v>
+        <v>403</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>433</v>
+        <v>629</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="K2" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="L2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>623</v>
+      </c>
       <c r="M2" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q2" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="U2" s="21" t="s">
+      <c r="Q2" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="R2" s="29"/>
+      <c r="S2" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>650</v>
       </c>
+      <c r="U2" s="22" t="s">
+        <v>655</v>
+      </c>
       <c r="V2" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="W2" s="22" t="s">
         <v>649</v>
       </c>
+      <c r="W2" s="17" t="s">
+        <v>683</v>
+      </c>
       <c r="X2" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="Z2" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y2" s="19" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>622</v>
       </c>
@@ -3635,79 +3619,76 @@
         <v>485</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="N3" s="17" t="s">
         <v>669</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="O3" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="P3" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>661</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="N3" s="17" t="s">
+      <c r="T3" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="P3" s="17" t="s">
+      <c r="U3" s="22" t="s">
         <v>663</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="S3" s="29" t="s">
+      <c r="V3" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="X3" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="T3" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="U3" s="21" t="s">
+      <c r="Y3" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="V3" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>624</v>
       </c>
@@ -3715,75 +3696,72 @@
         <v>485</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>638</v>
+        <v>403</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>433</v>
+        <v>667</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="L4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>623</v>
+      </c>
       <c r="M4" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>625</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q4" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="U4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="T4" s="21" t="s">
         <v>651</v>
       </c>
+      <c r="U4" s="22" t="s">
+        <v>655</v>
+      </c>
       <c r="V4" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="W4" s="22" t="s">
         <v>637</v>
       </c>
+      <c r="W4" s="17" t="s">
+        <v>685</v>
+      </c>
       <c r="X4" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="Z4" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y4" s="19" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>627</v>
       </c>
@@ -3791,40 +3769,40 @@
         <v>485</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>643</v>
+        <v>403</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>433</v>
+        <v>641</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>642</v>
@@ -3832,77 +3810,74 @@
       <c r="P5" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="R5" s="22" t="s">
+      <c r="Q5" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="X5" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="S5" s="29"/>
-      <c r="T5" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>689</v>
-      </c>
       <c r="Y5" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="Z5" s="17" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>646</v>
+        <v>403</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>433</v>
+        <v>654</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>677</v>
+        <v>626</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="O6" s="17" t="s">
         <v>645</v>
@@ -3910,66 +3885,63 @@
       <c r="P6" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="S6" s="29"/>
+      <c r="Q6" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="22" t="s">
+        <v>673</v>
+      </c>
       <c r="T6" s="22" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="V6" s="22" t="s">
         <v>655</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="X6" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
+      <c r="W6" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M7" s="17"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="V8" s="22"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L7" s="17"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="V9" s="22"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L10" s="17"/>
-      <c r="V10" s="22"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O11" s="20"/>
-      <c r="V11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K12" s="17"/>
-      <c r="V12" s="22"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K13" s="17"/>
-      <c r="V13" s="22"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J14" s="17"/>
-      <c r="V14" s="22"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K10" s="17"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="N11" s="20"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J12" s="17"/>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J13" s="17"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I14" s="17"/>
+      <c r="U14" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B13:B1048576 B1:B2 B4:B7">
@@ -4093,7 +4065,7 @@
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1495" yWindow="249" count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="G1:H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list" sqref="F1:G1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4104,31 +4076,31 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>N1:O1</xm:sqref>
+          <xm:sqref>M1:N1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$I$1:$I$12</xm:f>
           </x14:formula1>
-          <xm:sqref>Z1</xm:sqref>
+          <xm:sqref>Y1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$B$2:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E4:E1048576</xm:sqref>
+          <xm:sqref>D2 D4:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'CV values'!$C$2:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>F2 F4:F1048576</xm:sqref>
+          <xm:sqref>E2 E4:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
@@ -4140,37 +4112,37 @@
           <x14:formula1>
             <xm:f>'CV values'!$D$2:$D$60</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:H2 G4:H1048576</xm:sqref>
+          <xm:sqref>F2:G2 F4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid value" error="Please select a value from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:H3</xm:sqref>
+          <xm:sqref>F3:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Please choose a value from the dropdown list" prompt="Please choose a value from the dropdown list">
           <x14:formula1>
             <xm:f>'[1]CV values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B3 E3:F3</xm:sqref>
+          <xm:sqref>B3 D3:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$13</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:Y1</xm:sqref>
+          <xm:sqref>W1:X1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$30</xm:f>
           </x14:formula1>
-          <xm:sqref>R1:W1</xm:sqref>
+          <xm:sqref>Q1:V1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>J1:K1</xm:sqref>
+          <xm:sqref>I1:J1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/datamares/OLR/OLR_datamares_ecosystems.xlsx
+++ b/datamares/OLR/OLR_datamares_ecosystems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="687">
   <si>
     <t>text</t>
   </si>
@@ -2024,9 +2024,6 @@
   </si>
   <si>
     <t>Exploring diversity in Cabo Pulmo National Park through fish eggs and larvae @ http://dx.doi.org/10.13022/M3KK5D</t>
-  </si>
-  <si>
-    <t>ec_cp_fish_larvae.xlsx</t>
   </si>
   <si>
     <r>
@@ -3433,7 +3430,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,11 +3583,11 @@
         <v>633</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T2" s="21" t="s">
         <v>650</v>
@@ -3602,10 +3599,10 @@
         <v>649</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>635</v>
@@ -3618,15 +3615,9 @@
       <c r="B3" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
         <v>358</v>
       </c>
@@ -3652,7 +3643,7 @@
         <v>659</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>660</v>
@@ -3664,7 +3655,7 @@
         <v>659</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S3" s="22" t="s">
         <v>661</v>
@@ -3679,10 +3670,10 @@
         <v>664</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Y3" s="19" t="s">
         <v>665</v>
@@ -3711,7 +3702,7 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>626</v>
@@ -3736,11 +3727,11 @@
         <v>636</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T4" s="21" t="s">
         <v>651</v>
@@ -3752,10 +3743,10 @@
         <v>637</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Y4" s="19" t="s">
         <v>640</v>
@@ -3787,7 +3778,7 @@
         <v>641</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>626</v>
@@ -3811,11 +3802,11 @@
         <v>642</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>652</v>
@@ -3827,10 +3818,10 @@
         <v>653</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Y5" s="17" t="s">
         <v>644</v>
@@ -3838,7 +3829,7 @@
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
@@ -3862,7 +3853,7 @@
         <v>654</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>626</v>
@@ -3886,11 +3877,11 @@
         <v>645</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T6" s="22" t="s">
         <v>652</v>
@@ -3902,7 +3893,7 @@
         <v>647</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">

--- a/datamares/OLR/OLR_datamares_ecosystems.xlsx
+++ b/datamares/OLR/OLR_datamares_ecosystems.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="688">
   <si>
     <t>text</t>
   </si>
@@ -2007,10 +2007,6 @@
   </si>
   <si>
     <t>2014-01-11</t>
-  </si>
-  <si>
-    <t>In January of 2014 we began collecting fish eggs and larvae from inside Cabo Pulmo National Park and using genetic method to identify species. Our surveys have found eggs and larvae from 112 different fish species across 17 major groups, including some that have never been seen inside Cabo Pulmo’s waters, and revealed distinct seasonal spawning patterns for many of them.
-Data collected in collaboration with Scripps Institution of Oceanography, Interdisciplinary Marine Science Institute and Cabo Pulmo Divers. The findings presented here are preliminary – this is an ongoing survey for which eggs are still being collected and analyzed.</t>
   </si>
   <si>
     <t>The data described here have been embargoed until 2019-01-01. Inquiries should be directed to Ana Luisa Ahern (aahern@ucsd.edu).
@@ -2075,12 +2071,6 @@
     <t>Giron-Nava, Alfredo (2016): El Niño/La Niña effects in the Gulf of California. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
-    <t>Aburto-Oropeza, Octavio; Moreno-Baez, Marcia; Johnson, Andrew; Giron-Nava, Alfredo; Cisneros-Montemayor, Andres; Suarez, Alvin (2016): Mapping Ocean's Wealth - Habitats extent. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
-    <t>Aburto-Oropeza, Octavio; Johnson, Andrew (2016): Climate change impacts. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
-  </si>
-  <si>
     <t>Ahern, Ana Luisa; Burton, Ron; Gomez, Jaime; Aburto-Oropeza, Octavio (20##): Exploring diversity in Cabo Pulmo National Park through fish eggs and larvae. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
   </si>
   <si>
@@ -2106,6 +2096,18 @@
   </si>
   <si>
     <t>Climate change | Marine pollution | Marine protected area | Global</t>
+  </si>
+  <si>
+    <t>In January of 2014 we began collecting fish eggs and larvae from inside Cabo Pulmo National Park and using genetic method to identify species. Our surveys have found eggs and larvae from 112 different fish species across 17 major groups, including some that have never been seen inside Cabo Pulmo’s waters, and revealed distinct seasonal spawning patterns for many of them.</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza, Octavio; Moreno-Baez, Marcia; Johnson, Andrew; Giron-Nava, Alfredo; Cisneros-Montemayor, Andres; Suarez, Alvin (2017): Mapping Ocean's Wealth - Habitats extent. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Aburto-Oropeza, Octavio; Johnson, Andrew (2017): Climate change impacts. In dataMares Project: Ecosystem Dynamics. UC San Diego Library Digital Collections.</t>
   </si>
 </sst>
 </file>
@@ -3427,10 +3429,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,11 +3585,11 @@
         <v>633</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R2" s="29"/>
       <c r="S2" s="22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="T2" s="21" t="s">
         <v>650</v>
@@ -3599,10 +3601,10 @@
         <v>649</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>635</v>
@@ -3643,7 +3645,7 @@
         <v>659</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>660</v>
@@ -3655,28 +3657,28 @@
         <v>659</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="X3" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="S3" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="V3" s="22" t="s">
+      <c r="Y3" s="19" t="s">
         <v>664</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3702,7 +3704,7 @@
         <v>433</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>626</v>
@@ -3727,11 +3729,11 @@
         <v>636</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="22" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T4" s="21" t="s">
         <v>651</v>
@@ -3743,10 +3745,10 @@
         <v>637</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="Y4" s="19" t="s">
         <v>640</v>
@@ -3778,7 +3780,7 @@
         <v>641</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>626</v>
@@ -3790,7 +3792,7 @@
         <v>623</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="N5" s="17" t="s">
         <v>642</v>
@@ -3802,11 +3804,11 @@
         <v>642</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="22" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T5" s="22" t="s">
         <v>652</v>
@@ -3818,10 +3820,10 @@
         <v>653</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="Y5" s="17" t="s">
         <v>644</v>
@@ -3829,7 +3831,7 @@
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>485</v>
@@ -3853,7 +3855,7 @@
         <v>654</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>626</v>
@@ -3865,7 +3867,7 @@
         <v>623</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>625</v>
+        <v>685</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>645</v>
@@ -3877,11 +3879,11 @@
         <v>645</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="22" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="T6" s="22" t="s">
         <v>652</v>
@@ -3893,7 +3895,7 @@
         <v>647</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17" t="s">
